--- a/WorshipCreator.TestData/Source/Books/CcwsBethelCommunity/CcwsBethelCommunity.xlsx
+++ b/WorshipCreator.TestData/Source/Books/CcwsBethelCommunity/CcwsBethelCommunity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\PageOptimizer\Data\WorshipCreator.TestData\Source\Books\CcwsBethelCommunity\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC96848-B015-4CDC-B39E-F185B2D6B0C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFA1858D-66BB-482D-8BAC-97C5ACAA3E37}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Statistics" sheetId="5" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1745" uniqueCount="524">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1763" uniqueCount="537">
   <si>
     <t>Title</t>
   </si>
@@ -1616,6 +1616,45 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>PraiseCharts</t>
+  </si>
+  <si>
+    <t>MultiTracks</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>Gb5</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>B3</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>Eb5</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1721,6 +1760,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2065,11 +2110,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4EC7BD2-8BDF-45E9-B524-C6FDE3C78E72}">
-  <dimension ref="A1:Q207"/>
+  <dimension ref="A1:U207"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L197" sqref="L197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2081,7 +2126,7 @@
     <col min="16" max="16" width="9.140625" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>523</v>
       </c>
@@ -2133,8 +2178,20 @@
       <c r="Q1" s="1" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R1" s="16" t="s">
+        <v>524</v>
+      </c>
+      <c r="S1" s="16" t="s">
+        <v>526</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>527</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>519</v>
       </c>
@@ -2176,8 +2233,20 @@
       </c>
       <c r="P2" s="13"/>
       <c r="Q2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R2">
+        <v>20858</v>
+      </c>
+      <c r="S2" t="s">
+        <v>528</v>
+      </c>
+      <c r="T2" t="s">
+        <v>529</v>
+      </c>
+      <c r="U2">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>519</v>
       </c>
@@ -2216,8 +2285,20 @@
       </c>
       <c r="P3" s="13"/>
       <c r="Q3" s="3"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R3">
+        <v>26906</v>
+      </c>
+      <c r="S3" t="s">
+        <v>530</v>
+      </c>
+      <c r="T3" t="s">
+        <v>533</v>
+      </c>
+      <c r="U3">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>519</v>
       </c>
@@ -2256,8 +2337,20 @@
       </c>
       <c r="P4" s="13"/>
       <c r="Q4" s="3"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R4">
+        <v>1007</v>
+      </c>
+      <c r="S4" t="s">
+        <v>534</v>
+      </c>
+      <c r="T4" t="s">
+        <v>535</v>
+      </c>
+      <c r="U4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>519</v>
       </c>
@@ -2298,8 +2391,20 @@
       <c r="Q5" s="3" t="s">
         <v>511</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R5">
+        <v>75854</v>
+      </c>
+      <c r="S5" s="17" t="s">
+        <v>534</v>
+      </c>
+      <c r="T5" s="17" t="s">
+        <v>536</v>
+      </c>
+      <c r="U5">
+        <v>18497</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
         <v>519</v>
       </c>
@@ -2338,8 +2443,14 @@
       </c>
       <c r="P6" s="13"/>
       <c r="Q6" s="3"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R6">
+        <v>1350</v>
+      </c>
+      <c r="U6">
+        <v>12090</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>519</v>
       </c>
@@ -2378,8 +2489,20 @@
       </c>
       <c r="P7" s="13"/>
       <c r="Q7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R7">
+        <v>20798</v>
+      </c>
+      <c r="S7" t="s">
+        <v>531</v>
+      </c>
+      <c r="T7" t="s">
+        <v>535</v>
+      </c>
+      <c r="U7">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>519</v>
       </c>
@@ -2418,8 +2541,20 @@
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="3"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R8">
+        <v>15547</v>
+      </c>
+      <c r="S8" t="s">
+        <v>532</v>
+      </c>
+      <c r="T8" t="s">
+        <v>535</v>
+      </c>
+      <c r="U8">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>519</v>
       </c>
@@ -2458,8 +2593,11 @@
       </c>
       <c r="P9" s="13"/>
       <c r="Q9" s="3"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R9">
+        <v>2337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>519</v>
       </c>
@@ -2501,8 +2639,20 @@
       </c>
       <c r="P10" s="13"/>
       <c r="Q10" s="3"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R10">
+        <v>25298</v>
+      </c>
+      <c r="S10" t="s">
+        <v>528</v>
+      </c>
+      <c r="T10" t="s">
+        <v>533</v>
+      </c>
+      <c r="U10">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>519</v>
       </c>
@@ -2544,7 +2694,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>519</v>
       </c>
@@ -2587,7 +2737,7 @@
       <c r="P12" s="13"/>
       <c r="Q12" s="3"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
         <v>519</v>
       </c>
@@ -2629,7 +2779,7 @@
       </c>
       <c r="Q13" s="3"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
         <v>519</v>
       </c>
@@ -2669,7 +2819,7 @@
       <c r="P14" s="13"/>
       <c r="Q14" s="3"/>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
         <v>519</v>
       </c>
@@ -2709,7 +2859,7 @@
       <c r="P15" s="13"/>
       <c r="Q15" s="3"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
         <v>519</v>
       </c>
@@ -10489,5 +10639,6 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>